--- a/01-Lesson-Plans/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Lesson-Plans/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8512a5b4b9cbd9d/UCB/temp/UCB-VIRT-DATA-PT-08-2023-U-LOLC/01-Lesson-Plans/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A3B0C-0820-2F41-9096-53CD8AE0EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{CB8A3B0C-0820-2F41-9096-53CD8AE0EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C000D7BA-D9E1-477D-8DA8-7D641BD09662}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Imanuel">'Shopping Trip'!$B$4,'Shopping Trip'!$D$6,'Shopping Trip'!$D$2</definedName>
     <definedName name="ItemTable">'Shopping Trip'!$A$1:$D$6</definedName>
+    <definedName name="Mike">Sheet1!$D$1:$M$15</definedName>
     <definedName name="PaidTotal">'Shopping Trip'!$G$5</definedName>
     <definedName name="Prices">'Shopping Trip'!$B$2:$B$6</definedName>
     <definedName name="Products">'Shopping Trip'!$A$2:$A$6</definedName>
     <definedName name="Tax">'Shopping Trip'!$C$2:$C$6</definedName>
+    <definedName name="Taxes">'Shopping Trip'!$C$2:$C$6</definedName>
+    <definedName name="Taxplus">'Shopping Trip'!$C$2:$D$6</definedName>
     <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
+    <definedName name="Zack">Sheet1!$D$1:$M$15</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -502,21 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -552,7 +558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -568,7 +574,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -587,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -607,7 +613,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -621,6 +627,521 @@
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>SUM(Taxplus)</f>
+        <v>79.199999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f>SUM(Imanuel)</f>
+        <v>56.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A449DFFB-C538-4CA8-B497-D1F006E6FF00}">
+  <dimension ref="D1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>9</v>
+      </c>
+      <c r="I1">
+        <v>11</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>15</v>
+      </c>
+      <c r="L1">
+        <v>17</v>
+      </c>
+      <c r="M1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="R10">
+        <f>SUM(Zack)</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="R11">
+        <f>AVERAGE(Zack)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
